--- a/Master.xlsx
+++ b/Master.xlsx
@@ -214,7 +214,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -292,13 +292,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="26"/>
       <color theme="1"/>
@@ -326,7 +319,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -407,16 +401,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -426,7 +420,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -466,12 +460,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -490,21 +478,27 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
+    <cellStyle name="20% - Accent2" xfId="4" builtinId="34"/>
     <cellStyle name="Accent6" xfId="2" builtinId="49"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="4" builtinId="10"/>
     <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -887,11 +881,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CJ93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="23.6640625" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.88671875" style="11" bestFit="1" customWidth="1"/>
@@ -901,7 +895,7 @@
     <col min="6" max="16384" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:88" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:88">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -909,12 +903,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:88" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:88">
       <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:88" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:88">
       <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
@@ -922,7 +916,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:88" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:88">
       <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
@@ -930,7 +924,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:88" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:88">
       <c r="A6" s="11" t="s">
         <v>4</v>
       </c>
@@ -938,7 +932,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:88" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:88">
       <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
@@ -946,353 +940,353 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:88" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:88" ht="14.4">
       <c r="A10" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="15"/>
-      <c r="AA10" s="15"/>
-      <c r="AB10" s="15"/>
-      <c r="AC10" s="15"/>
-      <c r="AD10" s="15"/>
-      <c r="AE10" s="15"/>
-      <c r="AF10" s="15"/>
-      <c r="AG10" s="15"/>
-      <c r="AH10" s="15"/>
-      <c r="AI10" s="15"/>
-      <c r="AJ10" s="15"/>
-      <c r="AK10" s="15"/>
-      <c r="AL10" s="15"/>
-      <c r="AM10" s="15"/>
-      <c r="AN10" s="15"/>
-      <c r="AO10" s="15"/>
-      <c r="AP10" s="15"/>
-      <c r="AQ10" s="15"/>
-      <c r="AR10" s="15"/>
-      <c r="AS10" s="15"/>
-      <c r="AT10" s="15"/>
-      <c r="AU10" s="15"/>
-      <c r="AV10" s="15"/>
-      <c r="AW10" s="15"/>
-      <c r="AX10" s="15"/>
-      <c r="AY10" s="15"/>
-      <c r="AZ10" s="15"/>
-      <c r="BA10" s="15"/>
-      <c r="BB10" s="15"/>
-      <c r="BC10" s="15"/>
-      <c r="BD10" s="15"/>
-      <c r="BE10" s="15"/>
-      <c r="BF10" s="15"/>
-      <c r="BG10" s="15"/>
-      <c r="BH10" s="15"/>
-      <c r="BI10" s="15"/>
-      <c r="BJ10" s="15"/>
-      <c r="BK10" s="15"/>
-      <c r="BL10" s="15"/>
-      <c r="BM10" s="15"/>
-      <c r="BN10" s="15"/>
-      <c r="BO10" s="15"/>
-      <c r="BP10" s="15"/>
-      <c r="BQ10" s="15"/>
-      <c r="BR10" s="15"/>
-      <c r="BS10" s="15"/>
-      <c r="BT10" s="15"/>
-      <c r="BU10" s="15"/>
-      <c r="BV10" s="15"/>
-      <c r="BW10" s="15"/>
-      <c r="BX10" s="15"/>
-      <c r="BY10" s="15"/>
-      <c r="BZ10" s="15"/>
-      <c r="CA10" s="15"/>
-      <c r="CB10" s="15"/>
-      <c r="CC10" s="15"/>
-      <c r="CD10" s="15"/>
-      <c r="CE10" s="15"/>
-      <c r="CF10" s="15"/>
-      <c r="CG10" s="15"/>
-      <c r="CH10" s="15"/>
-      <c r="CI10" s="15"/>
-      <c r="CJ10" s="15"/>
-    </row>
-    <row r="11" spans="1:88" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="15"/>
-      <c r="AA11" s="15"/>
-      <c r="AB11" s="15"/>
-      <c r="AC11" s="15"/>
-      <c r="AD11" s="15"/>
-      <c r="AE11" s="15"/>
-      <c r="AF11" s="15"/>
-      <c r="AG11" s="15"/>
-      <c r="AH11" s="15"/>
-      <c r="AI11" s="15"/>
-      <c r="AJ11" s="15"/>
-      <c r="AK11" s="15"/>
-      <c r="AL11" s="15"/>
-      <c r="AM11" s="15"/>
-      <c r="AN11" s="15"/>
-      <c r="AO11" s="15"/>
-      <c r="AP11" s="15"/>
-      <c r="AQ11" s="15"/>
-      <c r="AR11" s="15"/>
-      <c r="AS11" s="15"/>
-      <c r="AT11" s="15"/>
-      <c r="AU11" s="15"/>
-      <c r="AV11" s="15"/>
-      <c r="AW11" s="15"/>
-      <c r="AX11" s="15"/>
-      <c r="AY11" s="15"/>
-      <c r="AZ11" s="15"/>
-      <c r="BA11" s="15"/>
-      <c r="BB11" s="15"/>
-      <c r="BC11" s="15"/>
-      <c r="BD11" s="15"/>
-      <c r="BE11" s="15"/>
-      <c r="BF11" s="15"/>
-      <c r="BG11" s="15"/>
-      <c r="BH11" s="15"/>
-      <c r="BI11" s="15"/>
-      <c r="BJ11" s="15"/>
-      <c r="BK11" s="15"/>
-      <c r="BL11" s="15"/>
-      <c r="BM11" s="15"/>
-      <c r="BN11" s="15"/>
-      <c r="BO11" s="15"/>
-      <c r="BP11" s="15"/>
-      <c r="BQ11" s="15"/>
-      <c r="BR11" s="15"/>
-      <c r="BS11" s="15"/>
-      <c r="BT11" s="15"/>
-      <c r="BU11" s="15"/>
-      <c r="BV11" s="15"/>
-      <c r="BW11" s="15"/>
-      <c r="BX11" s="15"/>
-      <c r="BY11" s="15"/>
-      <c r="BZ11" s="15"/>
-      <c r="CA11" s="15"/>
-      <c r="CB11" s="15"/>
-      <c r="CC11" s="15"/>
-      <c r="CD11" s="15"/>
-      <c r="CE11" s="15"/>
-      <c r="CF11" s="15"/>
-      <c r="CG11" s="15"/>
-      <c r="CH11" s="15"/>
-      <c r="CI11" s="15"/>
-      <c r="CJ11" s="15"/>
-    </row>
-    <row r="12" spans="1:88" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="13"/>
+      <c r="AC10" s="13"/>
+      <c r="AD10" s="13"/>
+      <c r="AE10" s="13"/>
+      <c r="AF10" s="13"/>
+      <c r="AG10" s="13"/>
+      <c r="AH10" s="13"/>
+      <c r="AI10" s="13"/>
+      <c r="AJ10" s="13"/>
+      <c r="AK10" s="13"/>
+      <c r="AL10" s="13"/>
+      <c r="AM10" s="13"/>
+      <c r="AN10" s="13"/>
+      <c r="AO10" s="13"/>
+      <c r="AP10" s="13"/>
+      <c r="AQ10" s="13"/>
+      <c r="AR10" s="13"/>
+      <c r="AS10" s="13"/>
+      <c r="AT10" s="13"/>
+      <c r="AU10" s="13"/>
+      <c r="AV10" s="13"/>
+      <c r="AW10" s="13"/>
+      <c r="AX10" s="13"/>
+      <c r="AY10" s="13"/>
+      <c r="AZ10" s="13"/>
+      <c r="BA10" s="13"/>
+      <c r="BB10" s="13"/>
+      <c r="BC10" s="13"/>
+      <c r="BD10" s="13"/>
+      <c r="BE10" s="13"/>
+      <c r="BF10" s="13"/>
+      <c r="BG10" s="13"/>
+      <c r="BH10" s="13"/>
+      <c r="BI10" s="13"/>
+      <c r="BJ10" s="13"/>
+      <c r="BK10" s="13"/>
+      <c r="BL10" s="13"/>
+      <c r="BM10" s="13"/>
+      <c r="BN10" s="13"/>
+      <c r="BO10" s="13"/>
+      <c r="BP10" s="13"/>
+      <c r="BQ10" s="13"/>
+      <c r="BR10" s="13"/>
+      <c r="BS10" s="13"/>
+      <c r="BT10" s="13"/>
+      <c r="BU10" s="13"/>
+      <c r="BV10" s="13"/>
+      <c r="BW10" s="13"/>
+      <c r="BX10" s="13"/>
+      <c r="BY10" s="13"/>
+      <c r="BZ10" s="13"/>
+      <c r="CA10" s="13"/>
+      <c r="CB10" s="13"/>
+      <c r="CC10" s="13"/>
+      <c r="CD10" s="13"/>
+      <c r="CE10" s="13"/>
+      <c r="CF10" s="13"/>
+      <c r="CG10" s="13"/>
+      <c r="CH10" s="13"/>
+      <c r="CI10" s="13"/>
+      <c r="CJ10" s="13"/>
+    </row>
+    <row r="11" spans="1:88" ht="14.4">
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="13"/>
+      <c r="AD11" s="13"/>
+      <c r="AE11" s="13"/>
+      <c r="AF11" s="13"/>
+      <c r="AG11" s="13"/>
+      <c r="AH11" s="13"/>
+      <c r="AI11" s="13"/>
+      <c r="AJ11" s="13"/>
+      <c r="AK11" s="13"/>
+      <c r="AL11" s="13"/>
+      <c r="AM11" s="13"/>
+      <c r="AN11" s="13"/>
+      <c r="AO11" s="13"/>
+      <c r="AP11" s="13"/>
+      <c r="AQ11" s="13"/>
+      <c r="AR11" s="13"/>
+      <c r="AS11" s="13"/>
+      <c r="AT11" s="13"/>
+      <c r="AU11" s="13"/>
+      <c r="AV11" s="13"/>
+      <c r="AW11" s="13"/>
+      <c r="AX11" s="13"/>
+      <c r="AY11" s="13"/>
+      <c r="AZ11" s="13"/>
+      <c r="BA11" s="13"/>
+      <c r="BB11" s="13"/>
+      <c r="BC11" s="13"/>
+      <c r="BD11" s="13"/>
+      <c r="BE11" s="13"/>
+      <c r="BF11" s="13"/>
+      <c r="BG11" s="13"/>
+      <c r="BH11" s="13"/>
+      <c r="BI11" s="13"/>
+      <c r="BJ11" s="13"/>
+      <c r="BK11" s="13"/>
+      <c r="BL11" s="13"/>
+      <c r="BM11" s="13"/>
+      <c r="BN11" s="13"/>
+      <c r="BO11" s="13"/>
+      <c r="BP11" s="13"/>
+      <c r="BQ11" s="13"/>
+      <c r="BR11" s="13"/>
+      <c r="BS11" s="13"/>
+      <c r="BT11" s="13"/>
+      <c r="BU11" s="13"/>
+      <c r="BV11" s="13"/>
+      <c r="BW11" s="13"/>
+      <c r="BX11" s="13"/>
+      <c r="BY11" s="13"/>
+      <c r="BZ11" s="13"/>
+      <c r="CA11" s="13"/>
+      <c r="CB11" s="13"/>
+      <c r="CC11" s="13"/>
+      <c r="CD11" s="13"/>
+      <c r="CE11" s="13"/>
+      <c r="CF11" s="13"/>
+      <c r="CG11" s="13"/>
+      <c r="CH11" s="13"/>
+      <c r="CI11" s="13"/>
+      <c r="CJ11" s="13"/>
+    </row>
+    <row r="12" spans="1:88" ht="14.4">
       <c r="A12" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="15"/>
-      <c r="W12" s="15"/>
-      <c r="X12" s="15"/>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="15"/>
-      <c r="AA12" s="15"/>
-      <c r="AB12" s="15"/>
-      <c r="AC12" s="15"/>
-      <c r="AD12" s="15"/>
-      <c r="AE12" s="15"/>
-      <c r="AF12" s="15"/>
-      <c r="AG12" s="15"/>
-      <c r="AH12" s="15"/>
-      <c r="AI12" s="15"/>
-      <c r="AJ12" s="15"/>
-      <c r="AK12" s="15"/>
-      <c r="AL12" s="15"/>
-      <c r="AM12" s="15"/>
-      <c r="AN12" s="15"/>
-      <c r="AO12" s="15"/>
-      <c r="AP12" s="15"/>
-      <c r="AQ12" s="15"/>
-      <c r="AR12" s="15"/>
-      <c r="AS12" s="15"/>
-      <c r="AT12" s="15"/>
-      <c r="AU12" s="15"/>
-      <c r="AV12" s="15"/>
-      <c r="AW12" s="15"/>
-      <c r="AX12" s="15"/>
-      <c r="AY12" s="15"/>
-      <c r="AZ12" s="15"/>
-      <c r="BA12" s="15"/>
-      <c r="BB12" s="15"/>
-      <c r="BC12" s="15"/>
-      <c r="BD12" s="15"/>
-      <c r="BE12" s="15"/>
-      <c r="BF12" s="15"/>
-      <c r="BG12" s="15"/>
-      <c r="BH12" s="15"/>
-      <c r="BI12" s="15"/>
-      <c r="BJ12" s="15"/>
-      <c r="BK12" s="15"/>
-      <c r="BL12" s="15"/>
-      <c r="BM12" s="15"/>
-      <c r="BN12" s="15"/>
-      <c r="BO12" s="15"/>
-      <c r="BP12" s="15"/>
-      <c r="BQ12" s="15"/>
-      <c r="BR12" s="15"/>
-      <c r="BS12" s="15"/>
-      <c r="BT12" s="15"/>
-      <c r="BU12" s="15"/>
-      <c r="BV12" s="15"/>
-      <c r="BW12" s="15"/>
-      <c r="BX12" s="15"/>
-      <c r="BY12" s="15"/>
-      <c r="BZ12" s="15"/>
-      <c r="CA12" s="15"/>
-      <c r="CB12" s="15"/>
-      <c r="CC12" s="15"/>
-      <c r="CD12" s="15"/>
-      <c r="CE12" s="15"/>
-      <c r="CF12" s="15"/>
-      <c r="CG12" s="15"/>
-      <c r="CH12" s="15"/>
-      <c r="CI12" s="15"/>
-      <c r="CJ12" s="15"/>
-    </row>
-    <row r="13" spans="1:88" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="15"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="15"/>
-      <c r="AA13" s="15"/>
-      <c r="AB13" s="15"/>
-      <c r="AC13" s="15"/>
-      <c r="AD13" s="15"/>
-      <c r="AE13" s="15"/>
-      <c r="AF13" s="15"/>
-      <c r="AG13" s="15"/>
-      <c r="AH13" s="15"/>
-      <c r="AI13" s="15"/>
-      <c r="AJ13" s="15"/>
-      <c r="AK13" s="15"/>
-      <c r="AL13" s="15"/>
-      <c r="AM13" s="15"/>
-      <c r="AN13" s="15"/>
-      <c r="AO13" s="15"/>
-      <c r="AP13" s="15"/>
-      <c r="AQ13" s="15"/>
-      <c r="AR13" s="15"/>
-      <c r="AS13" s="15"/>
-      <c r="AT13" s="15"/>
-      <c r="AU13" s="15"/>
-      <c r="AV13" s="15"/>
-      <c r="AW13" s="15"/>
-      <c r="AX13" s="15"/>
-      <c r="AY13" s="15"/>
-      <c r="AZ13" s="15"/>
-      <c r="BA13" s="15"/>
-      <c r="BB13" s="15"/>
-      <c r="BC13" s="15"/>
-      <c r="BD13" s="15"/>
-      <c r="BE13" s="15"/>
-      <c r="BF13" s="15"/>
-      <c r="BG13" s="15"/>
-      <c r="BH13" s="15"/>
-      <c r="BI13" s="15"/>
-      <c r="BJ13" s="15"/>
-      <c r="BK13" s="15"/>
-      <c r="BL13" s="15"/>
-      <c r="BM13" s="15"/>
-      <c r="BN13" s="15"/>
-      <c r="BO13" s="15"/>
-      <c r="BP13" s="15"/>
-      <c r="BQ13" s="15"/>
-      <c r="BR13" s="15"/>
-      <c r="BS13" s="15"/>
-      <c r="BT13" s="15"/>
-      <c r="BU13" s="15"/>
-      <c r="BV13" s="15"/>
-      <c r="BW13" s="15"/>
-      <c r="BX13" s="15"/>
-      <c r="BY13" s="15"/>
-      <c r="BZ13" s="15"/>
-      <c r="CA13" s="15"/>
-      <c r="CB13" s="15"/>
-      <c r="CC13" s="15"/>
-      <c r="CD13" s="15"/>
-      <c r="CE13" s="15"/>
-      <c r="CF13" s="15"/>
-      <c r="CG13" s="15"/>
-      <c r="CH13" s="15"/>
-      <c r="CI13" s="15"/>
-      <c r="CJ13" s="15"/>
-    </row>
-    <row r="14" spans="1:88" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="13"/>
+      <c r="AC12" s="13"/>
+      <c r="AD12" s="13"/>
+      <c r="AE12" s="13"/>
+      <c r="AF12" s="13"/>
+      <c r="AG12" s="13"/>
+      <c r="AH12" s="13"/>
+      <c r="AI12" s="13"/>
+      <c r="AJ12" s="13"/>
+      <c r="AK12" s="13"/>
+      <c r="AL12" s="13"/>
+      <c r="AM12" s="13"/>
+      <c r="AN12" s="13"/>
+      <c r="AO12" s="13"/>
+      <c r="AP12" s="13"/>
+      <c r="AQ12" s="13"/>
+      <c r="AR12" s="13"/>
+      <c r="AS12" s="13"/>
+      <c r="AT12" s="13"/>
+      <c r="AU12" s="13"/>
+      <c r="AV12" s="13"/>
+      <c r="AW12" s="13"/>
+      <c r="AX12" s="13"/>
+      <c r="AY12" s="13"/>
+      <c r="AZ12" s="13"/>
+      <c r="BA12" s="13"/>
+      <c r="BB12" s="13"/>
+      <c r="BC12" s="13"/>
+      <c r="BD12" s="13"/>
+      <c r="BE12" s="13"/>
+      <c r="BF12" s="13"/>
+      <c r="BG12" s="13"/>
+      <c r="BH12" s="13"/>
+      <c r="BI12" s="13"/>
+      <c r="BJ12" s="13"/>
+      <c r="BK12" s="13"/>
+      <c r="BL12" s="13"/>
+      <c r="BM12" s="13"/>
+      <c r="BN12" s="13"/>
+      <c r="BO12" s="13"/>
+      <c r="BP12" s="13"/>
+      <c r="BQ12" s="13"/>
+      <c r="BR12" s="13"/>
+      <c r="BS12" s="13"/>
+      <c r="BT12" s="13"/>
+      <c r="BU12" s="13"/>
+      <c r="BV12" s="13"/>
+      <c r="BW12" s="13"/>
+      <c r="BX12" s="13"/>
+      <c r="BY12" s="13"/>
+      <c r="BZ12" s="13"/>
+      <c r="CA12" s="13"/>
+      <c r="CB12" s="13"/>
+      <c r="CC12" s="13"/>
+      <c r="CD12" s="13"/>
+      <c r="CE12" s="13"/>
+      <c r="CF12" s="13"/>
+      <c r="CG12" s="13"/>
+      <c r="CH12" s="13"/>
+      <c r="CI12" s="13"/>
+      <c r="CJ12" s="13"/>
+    </row>
+    <row r="13" spans="1:88" ht="15" thickBot="1">
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="13"/>
+      <c r="AC13" s="13"/>
+      <c r="AD13" s="13"/>
+      <c r="AE13" s="13"/>
+      <c r="AF13" s="13"/>
+      <c r="AG13" s="13"/>
+      <c r="AH13" s="13"/>
+      <c r="AI13" s="13"/>
+      <c r="AJ13" s="13"/>
+      <c r="AK13" s="13"/>
+      <c r="AL13" s="13"/>
+      <c r="AM13" s="13"/>
+      <c r="AN13" s="13"/>
+      <c r="AO13" s="13"/>
+      <c r="AP13" s="13"/>
+      <c r="AQ13" s="13"/>
+      <c r="AR13" s="13"/>
+      <c r="AS13" s="13"/>
+      <c r="AT13" s="13"/>
+      <c r="AU13" s="13"/>
+      <c r="AV13" s="13"/>
+      <c r="AW13" s="13"/>
+      <c r="AX13" s="13"/>
+      <c r="AY13" s="13"/>
+      <c r="AZ13" s="13"/>
+      <c r="BA13" s="13"/>
+      <c r="BB13" s="13"/>
+      <c r="BC13" s="13"/>
+      <c r="BD13" s="13"/>
+      <c r="BE13" s="13"/>
+      <c r="BF13" s="13"/>
+      <c r="BG13" s="13"/>
+      <c r="BH13" s="13"/>
+      <c r="BI13" s="13"/>
+      <c r="BJ13" s="13"/>
+      <c r="BK13" s="13"/>
+      <c r="BL13" s="13"/>
+      <c r="BM13" s="13"/>
+      <c r="BN13" s="13"/>
+      <c r="BO13" s="13"/>
+      <c r="BP13" s="13"/>
+      <c r="BQ13" s="13"/>
+      <c r="BR13" s="13"/>
+      <c r="BS13" s="13"/>
+      <c r="BT13" s="13"/>
+      <c r="BU13" s="13"/>
+      <c r="BV13" s="13"/>
+      <c r="BW13" s="13"/>
+      <c r="BX13" s="13"/>
+      <c r="BY13" s="13"/>
+      <c r="BZ13" s="13"/>
+      <c r="CA13" s="13"/>
+      <c r="CB13" s="13"/>
+      <c r="CC13" s="13"/>
+      <c r="CD13" s="13"/>
+      <c r="CE13" s="13"/>
+      <c r="CF13" s="13"/>
+      <c r="CG13" s="13"/>
+      <c r="CH13" s="13"/>
+      <c r="CI13" s="13"/>
+      <c r="CJ13" s="13"/>
+    </row>
+    <row r="14" spans="1:88" s="14" customFormat="1" ht="15" thickBot="1">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -1308,91 +1302,91 @@
       <c r="E14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="15"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="15"/>
-      <c r="Z14" s="15"/>
-      <c r="AA14" s="15"/>
-      <c r="AB14" s="15"/>
-      <c r="AC14" s="15"/>
-      <c r="AD14" s="15"/>
-      <c r="AE14" s="15"/>
-      <c r="AF14" s="15"/>
-      <c r="AG14" s="15"/>
-      <c r="AH14" s="15"/>
-      <c r="AI14" s="15"/>
-      <c r="AJ14" s="15"/>
-      <c r="AK14" s="15"/>
-      <c r="AL14" s="15"/>
-      <c r="AM14" s="15"/>
-      <c r="AN14" s="15"/>
-      <c r="AO14" s="15"/>
-      <c r="AP14" s="15"/>
-      <c r="AQ14" s="15"/>
-      <c r="AR14" s="15"/>
-      <c r="AS14" s="15"/>
-      <c r="AT14" s="15"/>
-      <c r="AU14" s="15"/>
-      <c r="AV14" s="15"/>
-      <c r="AW14" s="15"/>
-      <c r="AX14" s="15"/>
-      <c r="AY14" s="15"/>
-      <c r="AZ14" s="15"/>
-      <c r="BA14" s="15"/>
-      <c r="BB14" s="15"/>
-      <c r="BC14" s="15"/>
-      <c r="BD14" s="15"/>
-      <c r="BE14" s="15"/>
-      <c r="BF14" s="15"/>
-      <c r="BG14" s="15"/>
-      <c r="BH14" s="15"/>
-      <c r="BI14" s="15"/>
-      <c r="BJ14" s="15"/>
-      <c r="BK14" s="15"/>
-      <c r="BL14" s="15"/>
-      <c r="BM14" s="15"/>
-      <c r="BN14" s="15"/>
-      <c r="BO14" s="15"/>
-      <c r="BP14" s="15"/>
-      <c r="BQ14" s="15"/>
-      <c r="BR14" s="15"/>
-      <c r="BS14" s="15"/>
-      <c r="BT14" s="15"/>
-      <c r="BU14" s="15"/>
-      <c r="BV14" s="15"/>
-      <c r="BW14" s="15"/>
-      <c r="BX14" s="15"/>
-      <c r="BY14" s="15"/>
-      <c r="BZ14" s="15"/>
-      <c r="CA14" s="15"/>
-      <c r="CB14" s="15"/>
-      <c r="CC14" s="15"/>
-      <c r="CD14" s="15"/>
-      <c r="CE14" s="15"/>
-      <c r="CF14" s="15"/>
-      <c r="CG14" s="15"/>
-      <c r="CH14" s="15"/>
-      <c r="CI14" s="15"/>
-      <c r="CJ14" s="15"/>
-    </row>
-    <row r="15" spans="1:88" s="17" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13"/>
+      <c r="AA14" s="13"/>
+      <c r="AB14" s="13"/>
+      <c r="AC14" s="13"/>
+      <c r="AD14" s="13"/>
+      <c r="AE14" s="13"/>
+      <c r="AF14" s="13"/>
+      <c r="AG14" s="13"/>
+      <c r="AH14" s="13"/>
+      <c r="AI14" s="13"/>
+      <c r="AJ14" s="13"/>
+      <c r="AK14" s="13"/>
+      <c r="AL14" s="13"/>
+      <c r="AM14" s="13"/>
+      <c r="AN14" s="13"/>
+      <c r="AO14" s="13"/>
+      <c r="AP14" s="13"/>
+      <c r="AQ14" s="13"/>
+      <c r="AR14" s="13"/>
+      <c r="AS14" s="13"/>
+      <c r="AT14" s="13"/>
+      <c r="AU14" s="13"/>
+      <c r="AV14" s="13"/>
+      <c r="AW14" s="13"/>
+      <c r="AX14" s="13"/>
+      <c r="AY14" s="13"/>
+      <c r="AZ14" s="13"/>
+      <c r="BA14" s="13"/>
+      <c r="BB14" s="13"/>
+      <c r="BC14" s="13"/>
+      <c r="BD14" s="13"/>
+      <c r="BE14" s="13"/>
+      <c r="BF14" s="13"/>
+      <c r="BG14" s="13"/>
+      <c r="BH14" s="13"/>
+      <c r="BI14" s="13"/>
+      <c r="BJ14" s="13"/>
+      <c r="BK14" s="13"/>
+      <c r="BL14" s="13"/>
+      <c r="BM14" s="13"/>
+      <c r="BN14" s="13"/>
+      <c r="BO14" s="13"/>
+      <c r="BP14" s="13"/>
+      <c r="BQ14" s="13"/>
+      <c r="BR14" s="13"/>
+      <c r="BS14" s="13"/>
+      <c r="BT14" s="13"/>
+      <c r="BU14" s="13"/>
+      <c r="BV14" s="13"/>
+      <c r="BW14" s="13"/>
+      <c r="BX14" s="13"/>
+      <c r="BY14" s="13"/>
+      <c r="BZ14" s="13"/>
+      <c r="CA14" s="13"/>
+      <c r="CB14" s="13"/>
+      <c r="CC14" s="13"/>
+      <c r="CD14" s="13"/>
+      <c r="CE14" s="13"/>
+      <c r="CF14" s="13"/>
+      <c r="CG14" s="13"/>
+      <c r="CH14" s="13"/>
+      <c r="CI14" s="13"/>
+      <c r="CJ14" s="13"/>
+    </row>
+    <row r="15" spans="1:88" s="15" customFormat="1" ht="14.4">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
@@ -1408,91 +1402,91 @@
       <c r="E15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="15"/>
-      <c r="V15" s="15"/>
-      <c r="W15" s="15"/>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="15"/>
-      <c r="Z15" s="15"/>
-      <c r="AA15" s="15"/>
-      <c r="AB15" s="15"/>
-      <c r="AC15" s="15"/>
-      <c r="AD15" s="15"/>
-      <c r="AE15" s="15"/>
-      <c r="AF15" s="15"/>
-      <c r="AG15" s="15"/>
-      <c r="AH15" s="15"/>
-      <c r="AI15" s="15"/>
-      <c r="AJ15" s="15"/>
-      <c r="AK15" s="15"/>
-      <c r="AL15" s="15"/>
-      <c r="AM15" s="15"/>
-      <c r="AN15" s="15"/>
-      <c r="AO15" s="15"/>
-      <c r="AP15" s="15"/>
-      <c r="AQ15" s="15"/>
-      <c r="AR15" s="15"/>
-      <c r="AS15" s="15"/>
-      <c r="AT15" s="15"/>
-      <c r="AU15" s="15"/>
-      <c r="AV15" s="15"/>
-      <c r="AW15" s="15"/>
-      <c r="AX15" s="15"/>
-      <c r="AY15" s="15"/>
-      <c r="AZ15" s="15"/>
-      <c r="BA15" s="15"/>
-      <c r="BB15" s="15"/>
-      <c r="BC15" s="15"/>
-      <c r="BD15" s="15"/>
-      <c r="BE15" s="15"/>
-      <c r="BF15" s="15"/>
-      <c r="BG15" s="15"/>
-      <c r="BH15" s="15"/>
-      <c r="BI15" s="15"/>
-      <c r="BJ15" s="15"/>
-      <c r="BK15" s="15"/>
-      <c r="BL15" s="15"/>
-      <c r="BM15" s="15"/>
-      <c r="BN15" s="15"/>
-      <c r="BO15" s="15"/>
-      <c r="BP15" s="15"/>
-      <c r="BQ15" s="15"/>
-      <c r="BR15" s="15"/>
-      <c r="BS15" s="15"/>
-      <c r="BT15" s="15"/>
-      <c r="BU15" s="15"/>
-      <c r="BV15" s="15"/>
-      <c r="BW15" s="15"/>
-      <c r="BX15" s="15"/>
-      <c r="BY15" s="15"/>
-      <c r="BZ15" s="15"/>
-      <c r="CA15" s="15"/>
-      <c r="CB15" s="15"/>
-      <c r="CC15" s="15"/>
-      <c r="CD15" s="15"/>
-      <c r="CE15" s="15"/>
-      <c r="CF15" s="15"/>
-      <c r="CG15" s="15"/>
-      <c r="CH15" s="15"/>
-      <c r="CI15" s="15"/>
-      <c r="CJ15" s="15"/>
-    </row>
-    <row r="16" spans="1:88" s="17" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="13"/>
+      <c r="AE15" s="13"/>
+      <c r="AF15" s="13"/>
+      <c r="AG15" s="13"/>
+      <c r="AH15" s="13"/>
+      <c r="AI15" s="13"/>
+      <c r="AJ15" s="13"/>
+      <c r="AK15" s="13"/>
+      <c r="AL15" s="13"/>
+      <c r="AM15" s="13"/>
+      <c r="AN15" s="13"/>
+      <c r="AO15" s="13"/>
+      <c r="AP15" s="13"/>
+      <c r="AQ15" s="13"/>
+      <c r="AR15" s="13"/>
+      <c r="AS15" s="13"/>
+      <c r="AT15" s="13"/>
+      <c r="AU15" s="13"/>
+      <c r="AV15" s="13"/>
+      <c r="AW15" s="13"/>
+      <c r="AX15" s="13"/>
+      <c r="AY15" s="13"/>
+      <c r="AZ15" s="13"/>
+      <c r="BA15" s="13"/>
+      <c r="BB15" s="13"/>
+      <c r="BC15" s="13"/>
+      <c r="BD15" s="13"/>
+      <c r="BE15" s="13"/>
+      <c r="BF15" s="13"/>
+      <c r="BG15" s="13"/>
+      <c r="BH15" s="13"/>
+      <c r="BI15" s="13"/>
+      <c r="BJ15" s="13"/>
+      <c r="BK15" s="13"/>
+      <c r="BL15" s="13"/>
+      <c r="BM15" s="13"/>
+      <c r="BN15" s="13"/>
+      <c r="BO15" s="13"/>
+      <c r="BP15" s="13"/>
+      <c r="BQ15" s="13"/>
+      <c r="BR15" s="13"/>
+      <c r="BS15" s="13"/>
+      <c r="BT15" s="13"/>
+      <c r="BU15" s="13"/>
+      <c r="BV15" s="13"/>
+      <c r="BW15" s="13"/>
+      <c r="BX15" s="13"/>
+      <c r="BY15" s="13"/>
+      <c r="BZ15" s="13"/>
+      <c r="CA15" s="13"/>
+      <c r="CB15" s="13"/>
+      <c r="CC15" s="13"/>
+      <c r="CD15" s="13"/>
+      <c r="CE15" s="13"/>
+      <c r="CF15" s="13"/>
+      <c r="CG15" s="13"/>
+      <c r="CH15" s="13"/>
+      <c r="CI15" s="13"/>
+      <c r="CJ15" s="13"/>
+    </row>
+    <row r="16" spans="1:88" s="15" customFormat="1" ht="14.4">
       <c r="A16" s="6"/>
       <c r="B16" s="6" t="s">
         <v>10</v>
@@ -1506,91 +1500,91 @@
       <c r="E16" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="15"/>
-      <c r="U16" s="15"/>
-      <c r="V16" s="15"/>
-      <c r="W16" s="15"/>
-      <c r="X16" s="15"/>
-      <c r="Y16" s="15"/>
-      <c r="Z16" s="15"/>
-      <c r="AA16" s="15"/>
-      <c r="AB16" s="15"/>
-      <c r="AC16" s="15"/>
-      <c r="AD16" s="15"/>
-      <c r="AE16" s="15"/>
-      <c r="AF16" s="15"/>
-      <c r="AG16" s="15"/>
-      <c r="AH16" s="15"/>
-      <c r="AI16" s="15"/>
-      <c r="AJ16" s="15"/>
-      <c r="AK16" s="15"/>
-      <c r="AL16" s="15"/>
-      <c r="AM16" s="15"/>
-      <c r="AN16" s="15"/>
-      <c r="AO16" s="15"/>
-      <c r="AP16" s="15"/>
-      <c r="AQ16" s="15"/>
-      <c r="AR16" s="15"/>
-      <c r="AS16" s="15"/>
-      <c r="AT16" s="15"/>
-      <c r="AU16" s="15"/>
-      <c r="AV16" s="15"/>
-      <c r="AW16" s="15"/>
-      <c r="AX16" s="15"/>
-      <c r="AY16" s="15"/>
-      <c r="AZ16" s="15"/>
-      <c r="BA16" s="15"/>
-      <c r="BB16" s="15"/>
-      <c r="BC16" s="15"/>
-      <c r="BD16" s="15"/>
-      <c r="BE16" s="15"/>
-      <c r="BF16" s="15"/>
-      <c r="BG16" s="15"/>
-      <c r="BH16" s="15"/>
-      <c r="BI16" s="15"/>
-      <c r="BJ16" s="15"/>
-      <c r="BK16" s="15"/>
-      <c r="BL16" s="15"/>
-      <c r="BM16" s="15"/>
-      <c r="BN16" s="15"/>
-      <c r="BO16" s="15"/>
-      <c r="BP16" s="15"/>
-      <c r="BQ16" s="15"/>
-      <c r="BR16" s="15"/>
-      <c r="BS16" s="15"/>
-      <c r="BT16" s="15"/>
-      <c r="BU16" s="15"/>
-      <c r="BV16" s="15"/>
-      <c r="BW16" s="15"/>
-      <c r="BX16" s="15"/>
-      <c r="BY16" s="15"/>
-      <c r="BZ16" s="15"/>
-      <c r="CA16" s="15"/>
-      <c r="CB16" s="15"/>
-      <c r="CC16" s="15"/>
-      <c r="CD16" s="15"/>
-      <c r="CE16" s="15"/>
-      <c r="CF16" s="15"/>
-      <c r="CG16" s="15"/>
-      <c r="CH16" s="15"/>
-      <c r="CI16" s="15"/>
-      <c r="CJ16" s="15"/>
-    </row>
-    <row r="17" spans="1:88" s="17" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="13"/>
+      <c r="AD16" s="13"/>
+      <c r="AE16" s="13"/>
+      <c r="AF16" s="13"/>
+      <c r="AG16" s="13"/>
+      <c r="AH16" s="13"/>
+      <c r="AI16" s="13"/>
+      <c r="AJ16" s="13"/>
+      <c r="AK16" s="13"/>
+      <c r="AL16" s="13"/>
+      <c r="AM16" s="13"/>
+      <c r="AN16" s="13"/>
+      <c r="AO16" s="13"/>
+      <c r="AP16" s="13"/>
+      <c r="AQ16" s="13"/>
+      <c r="AR16" s="13"/>
+      <c r="AS16" s="13"/>
+      <c r="AT16" s="13"/>
+      <c r="AU16" s="13"/>
+      <c r="AV16" s="13"/>
+      <c r="AW16" s="13"/>
+      <c r="AX16" s="13"/>
+      <c r="AY16" s="13"/>
+      <c r="AZ16" s="13"/>
+      <c r="BA16" s="13"/>
+      <c r="BB16" s="13"/>
+      <c r="BC16" s="13"/>
+      <c r="BD16" s="13"/>
+      <c r="BE16" s="13"/>
+      <c r="BF16" s="13"/>
+      <c r="BG16" s="13"/>
+      <c r="BH16" s="13"/>
+      <c r="BI16" s="13"/>
+      <c r="BJ16" s="13"/>
+      <c r="BK16" s="13"/>
+      <c r="BL16" s="13"/>
+      <c r="BM16" s="13"/>
+      <c r="BN16" s="13"/>
+      <c r="BO16" s="13"/>
+      <c r="BP16" s="13"/>
+      <c r="BQ16" s="13"/>
+      <c r="BR16" s="13"/>
+      <c r="BS16" s="13"/>
+      <c r="BT16" s="13"/>
+      <c r="BU16" s="13"/>
+      <c r="BV16" s="13"/>
+      <c r="BW16" s="13"/>
+      <c r="BX16" s="13"/>
+      <c r="BY16" s="13"/>
+      <c r="BZ16" s="13"/>
+      <c r="CA16" s="13"/>
+      <c r="CB16" s="13"/>
+      <c r="CC16" s="13"/>
+      <c r="CD16" s="13"/>
+      <c r="CE16" s="13"/>
+      <c r="CF16" s="13"/>
+      <c r="CG16" s="13"/>
+      <c r="CH16" s="13"/>
+      <c r="CI16" s="13"/>
+      <c r="CJ16" s="13"/>
+    </row>
+    <row r="17" spans="1:88" s="15" customFormat="1" ht="14.4">
       <c r="A17" s="6"/>
       <c r="B17" s="6" t="s">
         <v>11</v>
@@ -1604,91 +1598,91 @@
       <c r="E17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15"/>
-      <c r="U17" s="15"/>
-      <c r="V17" s="15"/>
-      <c r="W17" s="15"/>
-      <c r="X17" s="15"/>
-      <c r="Y17" s="15"/>
-      <c r="Z17" s="15"/>
-      <c r="AA17" s="15"/>
-      <c r="AB17" s="15"/>
-      <c r="AC17" s="15"/>
-      <c r="AD17" s="15"/>
-      <c r="AE17" s="15"/>
-      <c r="AF17" s="15"/>
-      <c r="AG17" s="15"/>
-      <c r="AH17" s="15"/>
-      <c r="AI17" s="15"/>
-      <c r="AJ17" s="15"/>
-      <c r="AK17" s="15"/>
-      <c r="AL17" s="15"/>
-      <c r="AM17" s="15"/>
-      <c r="AN17" s="15"/>
-      <c r="AO17" s="15"/>
-      <c r="AP17" s="15"/>
-      <c r="AQ17" s="15"/>
-      <c r="AR17" s="15"/>
-      <c r="AS17" s="15"/>
-      <c r="AT17" s="15"/>
-      <c r="AU17" s="15"/>
-      <c r="AV17" s="15"/>
-      <c r="AW17" s="15"/>
-      <c r="AX17" s="15"/>
-      <c r="AY17" s="15"/>
-      <c r="AZ17" s="15"/>
-      <c r="BA17" s="15"/>
-      <c r="BB17" s="15"/>
-      <c r="BC17" s="15"/>
-      <c r="BD17" s="15"/>
-      <c r="BE17" s="15"/>
-      <c r="BF17" s="15"/>
-      <c r="BG17" s="15"/>
-      <c r="BH17" s="15"/>
-      <c r="BI17" s="15"/>
-      <c r="BJ17" s="15"/>
-      <c r="BK17" s="15"/>
-      <c r="BL17" s="15"/>
-      <c r="BM17" s="15"/>
-      <c r="BN17" s="15"/>
-      <c r="BO17" s="15"/>
-      <c r="BP17" s="15"/>
-      <c r="BQ17" s="15"/>
-      <c r="BR17" s="15"/>
-      <c r="BS17" s="15"/>
-      <c r="BT17" s="15"/>
-      <c r="BU17" s="15"/>
-      <c r="BV17" s="15"/>
-      <c r="BW17" s="15"/>
-      <c r="BX17" s="15"/>
-      <c r="BY17" s="15"/>
-      <c r="BZ17" s="15"/>
-      <c r="CA17" s="15"/>
-      <c r="CB17" s="15"/>
-      <c r="CC17" s="15"/>
-      <c r="CD17" s="15"/>
-      <c r="CE17" s="15"/>
-      <c r="CF17" s="15"/>
-      <c r="CG17" s="15"/>
-      <c r="CH17" s="15"/>
-      <c r="CI17" s="15"/>
-      <c r="CJ17" s="15"/>
-    </row>
-    <row r="18" spans="1:88" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13"/>
+      <c r="AA17" s="13"/>
+      <c r="AB17" s="13"/>
+      <c r="AC17" s="13"/>
+      <c r="AD17" s="13"/>
+      <c r="AE17" s="13"/>
+      <c r="AF17" s="13"/>
+      <c r="AG17" s="13"/>
+      <c r="AH17" s="13"/>
+      <c r="AI17" s="13"/>
+      <c r="AJ17" s="13"/>
+      <c r="AK17" s="13"/>
+      <c r="AL17" s="13"/>
+      <c r="AM17" s="13"/>
+      <c r="AN17" s="13"/>
+      <c r="AO17" s="13"/>
+      <c r="AP17" s="13"/>
+      <c r="AQ17" s="13"/>
+      <c r="AR17" s="13"/>
+      <c r="AS17" s="13"/>
+      <c r="AT17" s="13"/>
+      <c r="AU17" s="13"/>
+      <c r="AV17" s="13"/>
+      <c r="AW17" s="13"/>
+      <c r="AX17" s="13"/>
+      <c r="AY17" s="13"/>
+      <c r="AZ17" s="13"/>
+      <c r="BA17" s="13"/>
+      <c r="BB17" s="13"/>
+      <c r="BC17" s="13"/>
+      <c r="BD17" s="13"/>
+      <c r="BE17" s="13"/>
+      <c r="BF17" s="13"/>
+      <c r="BG17" s="13"/>
+      <c r="BH17" s="13"/>
+      <c r="BI17" s="13"/>
+      <c r="BJ17" s="13"/>
+      <c r="BK17" s="13"/>
+      <c r="BL17" s="13"/>
+      <c r="BM17" s="13"/>
+      <c r="BN17" s="13"/>
+      <c r="BO17" s="13"/>
+      <c r="BP17" s="13"/>
+      <c r="BQ17" s="13"/>
+      <c r="BR17" s="13"/>
+      <c r="BS17" s="13"/>
+      <c r="BT17" s="13"/>
+      <c r="BU17" s="13"/>
+      <c r="BV17" s="13"/>
+      <c r="BW17" s="13"/>
+      <c r="BX17" s="13"/>
+      <c r="BY17" s="13"/>
+      <c r="BZ17" s="13"/>
+      <c r="CA17" s="13"/>
+      <c r="CB17" s="13"/>
+      <c r="CC17" s="13"/>
+      <c r="CD17" s="13"/>
+      <c r="CE17" s="13"/>
+      <c r="CF17" s="13"/>
+      <c r="CG17" s="13"/>
+      <c r="CH17" s="13"/>
+      <c r="CI17" s="13"/>
+      <c r="CJ17" s="13"/>
+    </row>
+    <row r="18" spans="1:88" s="15" customFormat="1">
       <c r="A18" s="6"/>
       <c r="B18" s="6" t="s">
         <v>12</v>
@@ -1703,7 +1697,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:88" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:88" s="15" customFormat="1">
       <c r="A19" s="6"/>
       <c r="B19" s="6" t="s">
         <v>23</v>
@@ -1718,7 +1712,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:88" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:88" s="15" customFormat="1">
       <c r="A20" s="6"/>
       <c r="B20" s="6" t="s">
         <v>49</v>
@@ -1733,11 +1727,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:88" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:88" s="12" customFormat="1">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
     </row>
-    <row r="22" spans="1:88" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:88" s="12" customFormat="1">
       <c r="A22" s="6" t="s">
         <v>13</v>
       </c>
@@ -1754,7 +1748,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:88" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:88" s="15" customFormat="1">
       <c r="A23" s="6"/>
       <c r="B23" s="6" t="s">
         <v>44</v>
@@ -1769,7 +1763,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:88" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:88" s="15" customFormat="1">
       <c r="A24" s="6"/>
       <c r="B24" s="6" t="s">
         <v>16</v>
@@ -1784,7 +1778,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:88" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:88" s="15" customFormat="1">
       <c r="A25" s="6"/>
       <c r="B25" s="6" t="s">
         <v>38</v>
@@ -1799,14 +1793,14 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:88" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:88" s="15" customFormat="1">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
     </row>
-    <row r="27" spans="1:88" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:88" s="15" customFormat="1">
       <c r="A27" s="6" t="s">
         <v>17</v>
       </c>
@@ -1823,7 +1817,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:88" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:88" s="15" customFormat="1">
       <c r="A28" s="6"/>
       <c r="B28" s="6" t="s">
         <v>62</v>
@@ -1838,7 +1832,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:88" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:88" s="15" customFormat="1">
       <c r="A29" s="6"/>
       <c r="B29" s="6" t="s">
         <v>40</v>
@@ -1853,7 +1847,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:88" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:88" s="15" customFormat="1">
       <c r="A30" s="6"/>
       <c r="B30" s="6" t="s">
         <v>59</v>
@@ -1868,7 +1862,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:88" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:88" s="15" customFormat="1">
       <c r="A31" s="6"/>
       <c r="B31" s="6" t="s">
         <v>21</v>
@@ -1883,7 +1877,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:88" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:88" s="15" customFormat="1">
       <c r="A32" s="6"/>
       <c r="B32" s="6" t="s">
         <v>18</v>
@@ -1898,18 +1892,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" s="15" customFormat="1">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
     </row>
-    <row r="34" spans="1:5" s="17" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="20" t="s">
+    <row r="34" spans="1:5" s="15" customFormat="1" ht="14.4">
+      <c r="A34" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="18" t="s">
         <v>14</v>
       </c>
       <c r="C34" s="10" t="s">
@@ -1922,7 +1916,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="17" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" s="15" customFormat="1" ht="14.4">
       <c r="A35" s="9"/>
       <c r="B35" s="9" t="s">
         <v>23</v>
@@ -1937,7 +1931,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="17" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" s="15" customFormat="1" ht="14.4">
       <c r="A36" s="9"/>
       <c r="B36" s="9" t="s">
         <v>42</v>
@@ -1952,7 +1946,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="17" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" s="15" customFormat="1" ht="14.4">
       <c r="A37" s="9"/>
       <c r="B37" s="9" t="s">
         <v>59</v>
@@ -1967,7 +1961,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="17" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" s="15" customFormat="1" ht="14.4">
       <c r="A38" s="9"/>
       <c r="B38" s="9" t="s">
         <v>62</v>
@@ -1982,7 +1976,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="17" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" s="15" customFormat="1" ht="14.4">
       <c r="A39" s="9"/>
       <c r="B39" s="9" t="s">
         <v>20</v>
@@ -1997,7 +1991,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="14.4">
       <c r="A41" s="9" t="s">
         <v>47</v>
       </c>
@@ -2014,7 +2008,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="14.4">
       <c r="A42" s="9"/>
       <c r="B42" s="9" t="s">
         <v>46</v>
@@ -2029,11 +2023,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="19" t="s">
+    <row r="44" spans="1:5">
+      <c r="A44" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B44" s="19" t="s">
+      <c r="B44" s="17" t="s">
         <v>14</v>
       </c>
       <c r="C44" s="7" t="s">
@@ -2046,9 +2040,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="19"/>
-      <c r="B45" s="19" t="s">
+    <row r="45" spans="1:5">
+      <c r="A45" s="17"/>
+      <c r="B45" s="17" t="s">
         <v>57</v>
       </c>
       <c r="C45" s="7" t="s">
@@ -2061,9 +2055,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="19"/>
-      <c r="B46" s="19" t="s">
+    <row r="46" spans="1:5">
+      <c r="A46" s="17"/>
+      <c r="B46" s="17" t="s">
         <v>51</v>
       </c>
       <c r="C46" s="7" t="s">
@@ -2076,9 +2070,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="19"/>
-      <c r="B47" s="19" t="s">
+    <row r="47" spans="1:5">
+      <c r="A47" s="17"/>
+      <c r="B47" s="17" t="s">
         <v>11</v>
       </c>
       <c r="C47" s="7" t="s">
@@ -2091,9 +2085,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="19"/>
-      <c r="B48" s="19" t="s">
+    <row r="48" spans="1:5">
+      <c r="A48" s="17"/>
+      <c r="B48" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C48" s="7" t="s">
@@ -2106,16 +2100,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5">
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="19" t="s">
+    <row r="50" spans="1:5">
+      <c r="A50" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B50" s="19" t="s">
+      <c r="B50" s="17" t="s">
         <v>14</v>
       </c>
       <c r="C50" s="7" t="s">
@@ -2128,9 +2122,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="19"/>
-      <c r="B51" s="19" t="s">
+    <row r="51" spans="1:5">
+      <c r="A51" s="17"/>
+      <c r="B51" s="17" t="s">
         <v>53</v>
       </c>
       <c r="C51" s="7" t="s">
@@ -2143,9 +2137,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="19"/>
-      <c r="B52" s="19" t="s">
+    <row r="52" spans="1:5">
+      <c r="A52" s="17"/>
+      <c r="B52" s="17" t="s">
         <v>61</v>
       </c>
       <c r="C52" s="7" t="s">
@@ -2158,9 +2152,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="19"/>
-      <c r="B53" s="19" t="s">
+    <row r="53" spans="1:5">
+      <c r="A53" s="17"/>
+      <c r="B53" s="17" t="s">
         <v>55</v>
       </c>
       <c r="C53" s="7" t="s">
@@ -2173,9 +2167,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="19"/>
-      <c r="B54" s="19" t="s">
+    <row r="54" spans="1:5">
+      <c r="A54" s="17"/>
+      <c r="B54" s="17" t="s">
         <v>56</v>
       </c>
       <c r="C54" s="7" t="s">
@@ -2188,9 +2182,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="19"/>
-      <c r="B55" s="19" t="s">
+    <row r="55" spans="1:5">
+      <c r="A55" s="17"/>
+      <c r="B55" s="17" t="s">
         <v>11</v>
       </c>
       <c r="C55" s="7" t="s">
@@ -2203,7 +2197,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="14.4">
       <c r="A57" s="22" t="s">
         <v>19</v>
       </c>
@@ -2220,7 +2214,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="14.4">
       <c r="A58" s="22"/>
       <c r="B58" s="22" t="s">
         <v>54</v>
@@ -2235,7 +2229,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="14.4">
       <c r="A59" s="22"/>
       <c r="B59" s="22" t="s">
         <v>62</v>
@@ -2250,7 +2244,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="14.4">
       <c r="A60" s="22"/>
       <c r="B60" s="22" t="s">
         <v>59</v>
@@ -2265,7 +2259,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="14.4">
       <c r="A61" s="22"/>
       <c r="B61" s="22" t="s">
         <v>20</v>
@@ -2280,7 +2274,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" ht="14.4">
       <c r="A62" s="22"/>
       <c r="B62" s="22" t="s">
         <v>23</v>
@@ -2295,7 +2289,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="28.8" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" ht="28.8" customHeight="1" outlineLevel="1">
       <c r="A66" s="21" t="s">
         <v>35</v>
       </c>
@@ -2304,32 +2298,32 @@
       <c r="D66" s="21"/>
       <c r="E66" s="21"/>
     </row>
-    <row r="67" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A70" s="18"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="13" t="s">
+    <row r="67" spans="1:5" ht="13.8" customHeight="1"/>
+    <row r="70" spans="1:5" ht="14.4">
+      <c r="A70" s="16"/>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="14"/>
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="14"/>
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
+      <c r="B91" s="20"/>
+      <c r="C91" s="20"/>
+      <c r="D91" s="20"/>
+      <c r="E91" s="20"/>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="20"/>
+      <c r="B92" s="20"/>
+      <c r="C92" s="20"/>
+      <c r="D92" s="20"/>
+      <c r="E92" s="20"/>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="20"/>
+      <c r="B93" s="20"/>
+      <c r="C93" s="20"/>
+      <c r="D93" s="20"/>
+      <c r="E93" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2348,7 +2342,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2360,7 +2354,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
